--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markm\Documents\UiPath\Calculate_Client_Security_Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671AA374-1E77-472D-8ED0-6E27B64E1824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88238A89-0DB3-498B-90FA-F3FF64173068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Static part of logging message. Calling Get Transaction Data.</t>
   </si>
   <si>
-    <t>ACME_Credentials</t>
-  </si>
-  <si>
     <t>CCSH</t>
   </si>
   <si>
@@ -124,12 +121,27 @@
   <si>
     <t>Client Login Credentials (Username/ID &amp; Password)</t>
   </si>
+  <si>
+    <t>System1_Credential</t>
+  </si>
+  <si>
+    <t>System1URL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/login</t>
+  </si>
+  <si>
+    <t>SHA1OnlineURL</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,6 +173,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,10 +198,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -193,8 +213,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -560,10 +582,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -579,18 +601,32 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1583,8 +1619,11 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{CF2D55E4-484A-4D53-B4B0-16876C40C059}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2704,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
